--- a/medicine/Mort/Liste_des_cimetières_de_La_Réunion/Liste_des_cimetières_de_La_Réunion.xlsx
+++ b/medicine/Mort/Liste_des_cimetières_de_La_Réunion/Liste_des_cimetières_de_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des cimetières de La Réunion comprend notamment les cimetières suivants :
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Saint Denis
-Cimetière du Père Raimbault,  inscrit en totalité à l'inventaire supplémentaire des Monuments historiques depuis le 17 décembre 2015.
+          <t>Saint Denis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cimetière du Père Raimbault,  inscrit en totalité à l'inventaire supplémentaire des Monuments historiques depuis le 17 décembre 2015.
 Cimetière de la Jamaïque
 Cimetière du 15ème
 Cimetière du Brûlé
@@ -522,73 +539,821 @@
 Cimetière de Primat
 Cimetière de Ste Clotilde
 Cimetière de la Bretagne
-Cimetière de l'Est
-Sainte Marie
-Cimetière du Centre Ville
+Cimetière de l'Est</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sainte Marie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cimetière du Centre Ville
 Cimetière de la Rivière des Pluies
 Cimetière Intercommunal de Bois Rouge
-Cimetière des Jésuites
-Sainte Suzanne
-Cimetière de Bel-Air
-Cimetière Ste Vivienne
-Saint André
-Cimetière du Centre Ville
+Cimetière des Jésuites</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sainte Suzanne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cimetière de Bel-Air
+Cimetière Ste Vivienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Saint André</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cimetière du Centre Ville
 Cimetière de Champ Borne
 Vieux cimetière de Champ Borne
-Cimetière de Grand Canal
-Salazie
-Cimetière du Village
+Cimetière de Grand Canal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Salazie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cimetière du Village
 Cimetière d'Hell Bourg
-Cimetière de Grand Ilet
-Bras-Panon
-Cimetière communal de Bras-Panon
-Ancien cimetière
-Saint Benoît
-Cimetière de Saint-Benoît
-Cimetière de Sainte Anne
-La Plaine des Palmistes
-Cimetière communal de la Plaine des Palmistes
-Sainte Rose
-Cimetière communal de Ste Rose
-St Philippe
-Ancien cimetière de Basse Vallée, à Saint-Philippe, inscrit en totalité à l'inventaire supplémentaire des Monuments historiques depuis le 26 janvier 2012[1].
-Cimetière communal
-Saint Joseph
-Cimetière de Vincendo
+Cimetière de Grand Ilet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bras-Panon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cimetière communal de Bras-Panon
+Ancien cimetière</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saint Benoît</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cimetière de Saint-Benoît
+Cimetière de Sainte Anne</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La Plaine des Palmistes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cimetière communal de la Plaine des Palmistes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sainte Rose</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cimetière communal de Ste Rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>St Philippe</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ancien cimetière de Basse Vallée, à Saint-Philippe, inscrit en totalité à l'inventaire supplémentaire des Monuments historiques depuis le 26 janvier 2012.
+Cimetière communal</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Saint Joseph</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cimetière de Vincendo
 Cimetière du Butor
-Cimetière des Lianes
-Petite Ile
-Cimetière communal de Petite Ile
-Saint Pierre
-Cimetière du Centre Ville
+Cimetière des Lianes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Petite Ile</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cimetière communal de Petite Ile</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Saint Pierre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cimetière du Centre Ville
 Cimetière de Grand Bois
 Cimetière de Ravine des Cabris
-Cimetière de Montvert les Hauts
-Saint Louis
-Cimetière du Père Lafosse
-Le Tampon
-Cimetière de Terrain Fleury
-Cilaos
-Cimetière communal de Cilaos
-Etang Salé
-Cimetière communal de l'Etang Salé
-Les Avirons
-Cimetière communal des Avirons
-Saint Leu
-Cimetière de la Pointe au Sel
-Cimetière du Plate
-Trois Bassins
-Cimetière communal de Trois Bassins
-Saint Paul
-Cimetière de l'Etang
-Cimetière marin de Saint-Paul, à Saint-Paul, inscrit en totalité à l'inventaire supplémentaire des Monuments historiques depuis le 26 janvier 2012[2].
+Cimetière de Montvert les Hauts</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Saint Louis</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cimetière du Père Lafosse</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Le Tampon</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Cimetière de Terrain Fleury</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cilaos</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Cimetière communal de Cilaos</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Etang Salé</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cimetière communal de l'Etang Salé</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Les Avirons</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Cimetière communal des Avirons</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Saint Leu</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cimetière de la Pointe au Sel
+Cimetière du Plate</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Trois Bassins</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cimetière communal de Trois Bassins</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Saint Paul</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cimetière de l'Etang
+Cimetière marin de Saint-Paul, à Saint-Paul, inscrit en totalité à l'inventaire supplémentaire des Monuments historiques depuis le 26 janvier 2012.
 Cimetière des esclaves
 Cimetière de St Gilles
-Cimetière de la Saline les Hauts
-Le Port
-Cimetière Paysager du Port
-La Possession
-Cimetière de la Ravine à Marquet
+Cimetière de la Saline les Hauts</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Le Port</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cimetière Paysager du Port</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des cimetières</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>La Possession</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cimetière de la Ravine à Marquet
 Cimetière de Dos d'Ane</t>
         </is>
       </c>
